--- a/data/TC18.xlsx
+++ b/data/TC18.xlsx
@@ -467,7 +467,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,7 +489,7 @@
     <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
